--- a/en/application_framework/application_framework/web/getting_started/images/client_create/images.xlsx
+++ b/en/application_framework/application_framework/web/getting_started/images/client_create/images.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956AC847-C899-4A42-AD11-51B5255C41C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="555" windowWidth="9015" windowHeight="8700"/>
+    <workbookView xWindow="1155" yWindow="645" windowWidth="34620" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="顧客登録" sheetId="1" r:id="rId1"/>
@@ -18,65 +19,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>業種テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Industry type table</t>
   </si>
   <si>
-    <t>業種コード</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Customer table</t>
   </si>
   <si>
-    <t>業種名</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウシュ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Industry type code</t>
   </si>
   <si>
-    <t>顧客テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Client ID</t>
   </si>
   <si>
-    <t>顧客ID</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Business name</t>
   </si>
   <si>
-    <t>顧客名</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Client name</t>
   </si>
   <si>
-    <t>業種コード（FK）</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Industry type code (FK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,9 +225,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -297,6 +261,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -318,7 +285,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="角丸四角形 65"/>
+        <xdr:cNvPr id="66" name="角丸四角形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -350,10 +323,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>顧客登録機能</a:t>
+            <a:t>Customer registration function</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -375,7 +349,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvPr id="48" name="角丸四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -407,15 +387,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ヘッダメニュー</a:t>
+            <a:t>Header menu</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -437,7 +417,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="角丸四角形 59"/>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -469,15 +455,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>顧客登録確認</a:t>
+            <a:t>Client registration confirmation</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -499,7 +485,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="角丸四角形 60"/>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -531,15 +523,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>顧客登録完了</a:t>
+            <a:t>Client registration complete</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -561,7 +553,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="角丸四角形 66"/>
+        <xdr:cNvPr id="67" name="角丸四角形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -593,15 +591,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>顧客登録</a:t>
+            <a:t>Client registration</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -623,7 +621,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="3"/>
           <a:endCxn id="67" idx="1"/>
@@ -673,7 +677,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -720,7 +730,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線矢印コネクタ 72"/>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="60" idx="3"/>
           <a:endCxn id="61" idx="1"/>
@@ -770,7 +786,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="テキスト ボックス 74"/>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -805,14 +827,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -833,7 +853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -868,14 +894,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -896,7 +920,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="テキスト ボックス 76"/>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -931,14 +961,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -959,7 +987,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1006,7 +1040,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1041,14 +1081,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1056,26 +1094,134 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189804</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189804</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="714375"/>
-          <a:ext cx="1000125" cy="0"/>
+          <a:off x="1713804" y="2677715"/>
+          <a:ext cx="952500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189804</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189804</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2475804" y="2496740"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189804</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189804</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2475804" y="2668190"/>
+          <a:ext cx="190500" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1102,115 +1248,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>142179</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>132654</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2000250" y="552450"/>
-          <a:ext cx="200025" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2000250" y="704850"/>
-          <a:ext cx="200025" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="円/楕円 17"/>
+        <xdr:cNvPr id="18" name="円/楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1743075" y="638175"/>
-          <a:ext cx="190500" cy="171450"/>
+          <a:off x="2237679" y="2582465"/>
+          <a:ext cx="180975" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1246,7 +1308,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1267,20 +1332,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="グループ化 36"/>
+        <xdr:cNvPr id="37" name="グループ化 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="838200" y="4305300"/>
-          <a:ext cx="1981471" cy="5039149"/>
+          <a:off x="800100" y="4330303"/>
+          <a:ext cx="1886221" cy="5073677"/>
           <a:chOff x="857250" y="8963025"/>
           <a:chExt cx="1981471" cy="5039149"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="21" name="グループ化 20"/>
+          <xdr:cNvPr id="21" name="グループ化 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1293,7 +1370,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="14" name="図 13"/>
+            <xdr:cNvPr id="14" name="図 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -1322,7 +1405,13 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="図 18"/>
+            <xdr:cNvPr id="19" name="図 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -1351,7 +1440,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+            <xdr:cNvPr id="20" name="テキスト ボックス 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1386,12 +1481,14 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
+                <a:rPr kumimoji="1" lang="en-US" sz="4000">
                   <a:solidFill>
                     <a:schemeClr val="accent6"/>
                   </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>～</a:t>
+                <a:t>~</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1399,7 +1496,13 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="46" name="直線コネクタ 45"/>
+          <xdr:cNvPr id="46" name="直線コネクタ 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1434,7 +1537,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="直線コネクタ 50"/>
+          <xdr:cNvPr id="51" name="直線コネクタ 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1474,7 +1583,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1516,7 +1625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1549,9 +1658,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1584,6 +1710,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1759,74 +1902,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C14:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C14:V18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17:AE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="14" spans="3:18" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="C14" s="10" t="s">
+    <row r="14" spans="3:22" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="C14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>3</v>
+      <c r="O14" s="9" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:18" ht="15" x14ac:dyDescent="0.15">
-      <c r="C15" s="12" t="s">
-        <v>1</v>
+    <row r="15" spans="3:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="C15" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
-      <c r="M15" s="12" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="O15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="16" spans="3:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="C16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="16"/>
-    </row>
-    <row r="16" spans="3:18" ht="15" x14ac:dyDescent="0.15">
-      <c r="C16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="M16" s="13" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="6"/>
+      <c r="O16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M17" s="3" t="s">
+    <row r="17" spans="13:22" x14ac:dyDescent="0.15">
+      <c r="O17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+    <row r="18" spans="13:22" x14ac:dyDescent="0.15">
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1837,14 +1990,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:AM18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1853,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1862,5 +2015,6 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/en/application_framework/application_framework/web/getting_started/images/client_create/images.xlsx
+++ b/en/application_framework/application_framework/web/getting_started/images/client_create/images.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956AC847-C899-4A42-AD11-51B5255C41C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75FF992-C595-4E0A-AA57-4D33F75B0D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="645" windowWidth="34620" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="顧客登録" sheetId="1" r:id="rId1"/>
@@ -1319,23 +1319,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19321</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152824</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>72500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="グループ化 36">
+        <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851D33FD-9E42-4E46-A8AF-692CEA6AEF20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,163 +1343,46 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="800100" y="4330303"/>
-          <a:ext cx="1886221" cy="5073677"/>
-          <a:chOff x="857250" y="8963025"/>
-          <a:chExt cx="1981471" cy="5039149"/>
+          <a:off x="381000" y="3899297"/>
+          <a:ext cx="2800350" cy="4906437"/>
+          <a:chOff x="3000375" y="4391025"/>
+          <a:chExt cx="2800350" cy="4906437"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="21" name="グループ化 20">
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8954B2-63A0-7309-DA4E-3E3B8864DAF5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect b="84483"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="857250" y="8963025"/>
-            <a:ext cx="1981471" cy="5039149"/>
-            <a:chOff x="857250" y="8963025"/>
-            <a:chExt cx="1981471" cy="5039149"/>
+            <a:off x="3000375" y="4391025"/>
+            <a:ext cx="2772162" cy="1181100"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="14" name="図 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="895350" y="8963025"/>
-              <a:ext cx="1943371" cy="1228897"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="図 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="857250" y="10963275"/>
-              <a:ext cx="1905266" cy="3038899"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="テキスト ボックス 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1306841" y="10296525"/>
-              <a:ext cx="915122" cy="519147"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="ctr">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" sz="4000">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>~</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <xdr:cNvPr id="4" name="直線コネクタ 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6637BC3-EB74-C88C-2027-C292A09F8176}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1507,8 +1390,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1047750" y="10953750"/>
-            <a:ext cx="1581150" cy="0"/>
+            <a:off x="3000375" y="5572125"/>
+            <a:ext cx="2800350" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -1535,12 +1418,40 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105BC9AC-2DA7-CADA-11B5-728E55A72A77}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect t="60318"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3000375" y="6276975"/>
+            <a:ext cx="2772162" cy="3020487"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <xdr:cNvPr id="6" name="直線コネクタ 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15880D6-857C-5D05-13D5-FED83A2D551F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1548,8 +1459,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1057275" y="10172700"/>
-            <a:ext cx="1581150" cy="0"/>
+            <a:off x="3000375" y="6276975"/>
+            <a:ext cx="2800350" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -1576,6 +1487,107 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B214EF-CCE2-F633-7944-D3F54FD846BD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3928895" y="5664976"/>
+            <a:ext cx="915122" cy="519147"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>～</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="角丸四角形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04B2242-BFFB-F0E3-2E65-43912DD3AF08}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4724400" y="7391401"/>
+            <a:ext cx="419100" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1583,9 +1595,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1623,9 +1635,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1658,26 +1670,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1710,26 +1705,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1905,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C14:V18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17:AE17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
